--- a/CAPES/CAPES.xlsx
+++ b/CAPES/CAPES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shadow\Documents\GitHub\Philo-Capes-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shadow\Documents\GitHub\Philo-Capes-stats\CAPES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9F216-E6D0-46BC-955B-34BC6E9A1E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF6C769-2AF4-4606-96EE-C75B07A9451D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,6 +1123,9 @@
       <c r="F21">
         <v>38</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1154,6 +1157,9 @@
       </c>
       <c r="F22">
         <v>60</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
